--- a/LOGS/cb5a8c40-b4b8-4778-a3db-58160e590cb0/main_page_service_output/notes_cropped_df.xlsx
+++ b/LOGS/cb5a8c40-b4b8-4778-a3db-58160e590cb0/main_page_service_output/notes_cropped_df.xlsx
@@ -13,20 +13,26 @@
     <sheet name="11__244abe48-95a6-38" sheetId="4" r:id="rId4"/>
     <sheet name="12__11861af5-5316-33" sheetId="5" r:id="rId5"/>
     <sheet name="14__b1a9f356-7fb6-3a" sheetId="6" r:id="rId6"/>
-    <sheet name="15__f7c9c378-26d0-34" sheetId="7" r:id="rId7"/>
-    <sheet name="16__894762b3-0466-3b" sheetId="8" r:id="rId8"/>
-    <sheet name="16__2a7042d4-4a97-3c" sheetId="9" r:id="rId9"/>
-    <sheet name="17__a559bd49-7341-39" sheetId="10" r:id="rId10"/>
-    <sheet name="18__e4f11426-201b-30" sheetId="11" r:id="rId11"/>
-    <sheet name="19__30edcff6-0c5d-3b" sheetId="12" r:id="rId12"/>
-    <sheet name="19__c385dc9a-7b4a-38" sheetId="13" r:id="rId13"/>
+    <sheet name="7__502fa075-585e-30c" sheetId="7" r:id="rId7"/>
+    <sheet name="7__4e315c1b-b2e8-3c9" sheetId="8" r:id="rId8"/>
+    <sheet name="7__e0c4bc61-0635-370" sheetId="9" r:id="rId9"/>
+    <sheet name="7__2d5dcd12-d0ce-37c" sheetId="10" r:id="rId10"/>
+    <sheet name="15__f7c9c378-26d0-34" sheetId="11" r:id="rId11"/>
+    <sheet name="16__894762b3-0466-3b" sheetId="12" r:id="rId12"/>
+    <sheet name="16__2a7042d4-4a97-3c" sheetId="13" r:id="rId13"/>
+    <sheet name="17__a559bd49-7341-39" sheetId="14" r:id="rId14"/>
+    <sheet name="18__e4f11426-201b-30" sheetId="15" r:id="rId15"/>
+    <sheet name="19__30edcff6-0c5d-3b" sheetId="16" r:id="rId16"/>
+    <sheet name="19__c385dc9a-7b4a-38" sheetId="17" r:id="rId17"/>
+    <sheet name="4__4804b444-e9a6-3c0" sheetId="18" r:id="rId18"/>
+    <sheet name="6__4804b444-e9a6-3c0" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="268">
   <si>
     <t>Cash and cash equivalents</t>
   </si>
@@ -364,6 +370,171 @@
     <t>(48,899)</t>
   </si>
   <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>Tax losses carried forward</t>
+  </si>
+  <si>
+    <t>Tax assets (liabilities) before</t>
+  </si>
+  <si>
+    <t>set-off</t>
+  </si>
+  <si>
+    <t>Set-off of tax</t>
+  </si>
+  <si>
+    <t>Net tax assets</t>
+  </si>
+  <si>
+    <t>6208320</t>
+  </si>
+  <si>
+    <t>(692,994)</t>
+  </si>
+  <si>
+    <t>(250,215)</t>
+  </si>
+  <si>
+    <t>33377</t>
+  </si>
+  <si>
+    <t>5298488</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>(827,521)</t>
+  </si>
+  <si>
+    <t>575485</t>
+  </si>
+  <si>
+    <t>(33,377)</t>
+  </si>
+  <si>
+    <t>(285,413)</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>5380799</t>
+  </si>
+  <si>
+    <t>(117,509)</t>
+  </si>
+  <si>
+    <t>5013075</t>
+  </si>
+  <si>
+    <t>Deferred tax</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>(367,724)</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>367724</t>
+  </si>
+  <si>
+    <t>Current tax expense</t>
+  </si>
+  <si>
+    <t>Current year</t>
+  </si>
+  <si>
+    <t>Adjustment for prior years</t>
+  </si>
+  <si>
+    <t>Deferred tax expense/(benefit)</t>
+  </si>
+  <si>
+    <t>Origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Total income tax expense</t>
+  </si>
+  <si>
+    <t>5062081</t>
+  </si>
+  <si>
+    <t>862248</t>
+  </si>
+  <si>
+    <t>5924329</t>
+  </si>
+  <si>
+    <t>(360,728)</t>
+  </si>
+  <si>
+    <t>5563601</t>
+  </si>
+  <si>
+    <t>Profit before income tax</t>
+  </si>
+  <si>
+    <t>Tax using Company's domestic tax rate 30% (2022: 30%)</t>
+  </si>
+  <si>
+    <t>Non-deductible expenses</t>
+  </si>
+  <si>
+    <t>Changes in estimates related to prior years</t>
+  </si>
+  <si>
+    <t>Income tax expense</t>
+  </si>
+  <si>
+    <t>16873606</t>
+  </si>
+  <si>
+    <t>Balance at 1 April 2021</t>
+  </si>
+  <si>
+    <t>5963695</t>
+  </si>
+  <si>
+    <t>(809,097)</t>
+  </si>
+  <si>
+    <t>4937760</t>
+  </si>
+  <si>
+    <t>244625</t>
+  </si>
+  <si>
+    <t>116103</t>
+  </si>
+  <si>
+    <t>360728</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>6241697</t>
+  </si>
+  <si>
+    <t>(943,209)</t>
+  </si>
+  <si>
+    <t>943209</t>
+  </si>
+  <si>
     <t>Trade and other payables</t>
   </si>
   <si>
@@ -572,6 +743,99 @@
   </si>
   <si>
     <t>Fully paid ordinary shares at end of year</t>
+  </si>
+  <si>
+    <t>Trucks and buses</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition</t>
+  </si>
+  <si>
+    <t>Products transferred at a point in time</t>
+  </si>
+  <si>
+    <t>Personnel expenses</t>
+  </si>
+  <si>
+    <t>443834452</t>
+  </si>
+  <si>
+    <t>81384684</t>
+  </si>
+  <si>
+    <t>808212</t>
+  </si>
+  <si>
+    <t>526027348</t>
+  </si>
+  <si>
+    <t>458609986</t>
+  </si>
+  <si>
+    <t>70905994</t>
+  </si>
+  <si>
+    <t>611782</t>
+  </si>
+  <si>
+    <t>530127762</t>
+  </si>
+  <si>
+    <t>Net finance costs</t>
+  </si>
+  <si>
+    <t>Interestincome using the effective interest rate method</t>
+  </si>
+  <si>
+    <t>Finance income</t>
+  </si>
+  <si>
+    <t>Interest expense using the effective interest rate method on:</t>
+  </si>
+  <si>
+    <t>Lease liabilities</t>
+  </si>
+  <si>
+    <t>Loans and borrowings</t>
+  </si>
+  <si>
+    <t>Net foreign exchange loss</t>
+  </si>
+  <si>
+    <t>Finance costs</t>
+  </si>
+  <si>
+    <t>Net finance costs recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>765138</t>
+  </si>
+  <si>
+    <t>2841903</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>3607067</t>
+  </si>
+  <si>
+    <t>(3,607,067)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>697145</t>
+  </si>
+  <si>
+    <t>469432</t>
+  </si>
+  <si>
+    <t>1166577</t>
+  </si>
+  <si>
+    <t>(1,166,529)</t>
   </si>
 </sst>
 </file>
@@ -1012,13 +1276,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1034,173 +1298,153 @@
       <c r="E1" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>136</v>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
       <c r="D6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1230,97 +1474,111 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+    </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2023</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>167</v>
+      </c>
+      <c r="C4">
+        <v>7802444</v>
+      </c>
+      <c r="D4">
+        <v>8166254</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C5">
-        <v>1272474</v>
+        <v>333926</v>
       </c>
       <c r="D5">
-        <v>1386692</v>
+        <v>785740</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>805340</v>
+        <v>34427416</v>
       </c>
       <c r="D6">
-        <v>576678</v>
+        <v>44920374</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C7">
-        <v>434533</v>
+        <v>2795414</v>
       </c>
       <c r="D7">
-        <v>250005</v>
+        <v>2471759</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
       <c r="C8">
-        <v>2512347</v>
+        <v>754341</v>
       </c>
       <c r="D8">
-        <v>2213375</v>
+        <v>503541</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>172</v>
+      </c>
+      <c r="C9">
+        <v>5293901</v>
+      </c>
+      <c r="D9">
+        <v>3376358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C10">
-        <v>677679</v>
+        <v>2441269</v>
       </c>
       <c r="D10">
-        <v>1038838</v>
+        <v>6047112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11">
-        <v>677679</v>
+        <v>53848711</v>
       </c>
       <c r="D11">
-        <v>1038838</v>
+        <v>66271138</v>
       </c>
     </row>
   </sheetData>
@@ -1329,6 +1587,533 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>70000000</v>
+      </c>
+      <c r="D4">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>70948462</v>
+      </c>
+      <c r="D5">
+        <v>41234712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6">
+        <v>140948462</v>
+      </c>
+      <c r="D6">
+        <v>111234712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5">
+        <v>1272474</v>
+      </c>
+      <c r="D5">
+        <v>1386692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6">
+        <v>805340</v>
+      </c>
+      <c r="D6">
+        <v>576678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7">
+        <v>434533</v>
+      </c>
+      <c r="D7">
+        <v>250005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8">
+        <v>2512347</v>
+      </c>
+      <c r="D8">
+        <v>2213375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10">
+        <v>677679</v>
+      </c>
+      <c r="D10">
+        <v>1038838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11">
+        <v>677679</v>
+      </c>
+      <c r="D11">
+        <v>1038838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1352,38 +2137,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1393,10 +2178,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1412,23 +2197,23 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +2221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1457,7 +2242,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="B2">
         <v>2023</v>
@@ -1468,7 +2253,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="B3">
         <v>10000000</v>
@@ -1479,13 +2264,242 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="B4">
         <v>10000000</v>
       </c>
       <c r="C4">
         <v>10000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +3283,287 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4">
+        <v>7126487</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5">
+        <v>1029155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>8155642</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>285413</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>285413</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10">
+        <v>8441055</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2291,318 +3585,94 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
-      <c r="D2">
-        <v>2022</v>
+      <c r="D2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>21738319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
       </c>
       <c r="C4">
-        <v>7802444</v>
-      </c>
-      <c r="D4">
-        <v>8166254</v>
+        <v>6521496</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
       </c>
       <c r="C5">
-        <v>333926</v>
-      </c>
-      <c r="D5">
-        <v>785740</v>
+        <v>604991</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C6">
-        <v>34427416</v>
-      </c>
-      <c r="D6">
-        <v>44920374</v>
+        <v>285413</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
       </c>
       <c r="C7">
-        <v>2795414</v>
-      </c>
-      <c r="D7">
-        <v>2471759</v>
+        <v>1029155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
       </c>
       <c r="C8">
-        <v>754341</v>
-      </c>
-      <c r="D8">
-        <v>503541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9">
-        <v>5293901</v>
-      </c>
-      <c r="D9">
-        <v>3376358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10">
-        <v>2441269</v>
-      </c>
-      <c r="D10">
-        <v>6047112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11">
-        <v>53848711</v>
-      </c>
-      <c r="D11">
-        <v>66271138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>2023</v>
-      </c>
-      <c r="D2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>70000000</v>
-      </c>
-      <c r="D4">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5">
-        <v>70948462</v>
-      </c>
-      <c r="D5">
-        <v>41234712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6">
-        <v>140948462</v>
-      </c>
-      <c r="D6">
-        <v>111234712</v>
+        <v>8441055</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
